--- a/biology/Biochimie/Cystéinyldopa/Cystéinyldopa.xlsx
+++ b/biology/Biochimie/Cystéinyldopa/Cystéinyldopa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyst%C3%A9inyldopa</t>
+          <t>Cystéinyldopa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cystéinyldopa est un métabolite de la biosynthèse de la mélanine. L'excès de cette catécholamine dans l'urine et le plasma sanguin est un indicateur de mélanome et peut être utilisé pour le diagnostic comme pour la détection de métastases postopératoires.
